--- a/src/main/resources/data/ApplicationLists.xlsx
+++ b/src/main/resources/data/ApplicationLists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanchoi/IdeaProjects/SC2002 FCSD Group 2 HDB BTO/src/main/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2179e81e572d34a2/Documents/GitHub/sc2002_hdb_fcsd_group2/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BEDD44-152C-8645-92DA-0C9F093E71ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{74BEDD44-152C-8645-92DA-0C9F093E71ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1927C843-B25F-4522-9170-80CB436E6A08}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3315" yWindow="4410" windowWidth="28335" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Placeholder</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>Application Id</t>
+  </si>
+  <si>
+    <t>Project Id</t>
+  </si>
+  <si>
+    <t>Application Status</t>
+  </si>
+  <si>
+    <t>Flat Type</t>
+  </si>
+  <si>
+    <t>Flat Booked</t>
+  </si>
+  <si>
+    <t>Applicant NRIC</t>
+  </si>
+  <si>
+    <t>Previous Status</t>
+  </si>
+  <si>
+    <t>S1234567A</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>2-Room</t>
+  </si>
+  <si>
+    <t>SUCCESSFUL</t>
+  </si>
+  <si>
+    <t>T7654321B</t>
+  </si>
+  <si>
+    <t>3-Room</t>
+  </si>
+  <si>
+    <t>Blk 10 03-105</t>
+  </si>
+  <si>
+    <t>Blk 05 01-403</t>
   </si>
 </sst>
 </file>
@@ -84,6 +126,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,49 +398,99 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/data/ApplicationLists.xlsx
+++ b/src/main/resources/data/ApplicationLists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2179e81e572d34a2/Documents/GitHub/sc2002_hdb_fcsd_group2/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{74BEDD44-152C-8645-92DA-0C9F093E71ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1927C843-B25F-4522-9170-80CB436E6A08}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{74BEDD44-152C-8645-92DA-0C9F093E71ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{873055A2-28FE-4E94-8A54-72D8E2E6769C}"/>
   <bookViews>
-    <workbookView xWindow="-3315" yWindow="4410" windowWidth="28335" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1830" windowWidth="28335" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>2-Room</t>
   </si>
   <si>
-    <t>SUCCESSFUL</t>
-  </si>
-  <si>
     <t>T7654321B</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Blk 05 01-403</t>
+  </si>
+  <si>
+    <t>WITHDRAW_REQ</t>
   </si>
 </sst>
 </file>
@@ -126,10 +126,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,7 +394,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection sqref="A1:G3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,13 +447,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -467,7 +463,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -479,10 +475,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">

--- a/src/main/resources/data/ApplicationLists.xlsx
+++ b/src/main/resources/data/ApplicationLists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2179e81e572d34a2/Documents/GitHub/sc2002_hdb_fcsd_group2/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{74BEDD44-152C-8645-92DA-0C9F093E71ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{873055A2-28FE-4E94-8A54-72D8E2E6769C}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{74BEDD44-152C-8645-92DA-0C9F093E71ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC4A03BD-E98F-4945-A2C5-C31956556A48}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1830" windowWidth="28335" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3255" windowWidth="28335" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -469,7 +469,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>

--- a/src/main/resources/data/ApplicationLists.xlsx
+++ b/src/main/resources/data/ApplicationLists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2179e81e572d34a2/Documents/GitHub/sc2002_hdb_fcsd_group2/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{74BEDD44-152C-8645-92DA-0C9F093E71ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC4A03BD-E98F-4945-A2C5-C31956556A48}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{74BEDD44-152C-8645-92DA-0C9F093E71ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C09DA3C6-AD67-4071-B75B-426EE8447BBE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3255" windowWidth="28335" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,6 +126,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,7 +398,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +448,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -469,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>

--- a/src/main/resources/data/ApplicationLists.xlsx
+++ b/src/main/resources/data/ApplicationLists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2179e81e572d34a2/Documents/GitHub/sc2002_hdb_fcsd_group2/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{74BEDD44-152C-8645-92DA-0C9F093E71ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C09DA3C6-AD67-4071-B75B-426EE8447BBE}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{74BEDD44-152C-8645-92DA-0C9F093E71ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28F8AE0B-93D9-42FD-81EF-F3B11C035DD4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3255" windowWidth="28335" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,10 +126,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/src/main/resources/data/ApplicationLists.xlsx
+++ b/src/main/resources/data/ApplicationLists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2179e81e572d34a2/Documents/GitHub/sc2002_hdb_fcsd_group2/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{74BEDD44-152C-8645-92DA-0C9F093E71ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28F8AE0B-93D9-42FD-81EF-F3B11C035DD4}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{74BEDD44-152C-8645-92DA-0C9F093E71ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED9F029F-920D-499E-AD32-BF5A8785ACF3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3255" windowWidth="28335" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Application Id</t>
   </si>
@@ -54,22 +54,16 @@
     <t>PENDING</t>
   </si>
   <si>
-    <t>2-Room</t>
-  </si>
-  <si>
     <t>T7654321B</t>
   </si>
   <si>
-    <t>3-Room</t>
-  </si>
-  <si>
-    <t>Blk 10 03-105</t>
-  </si>
-  <si>
-    <t>Blk 05 01-403</t>
-  </si>
-  <si>
     <t>WITHDRAW_REQ</t>
+  </si>
+  <si>
+    <t>SUCCESSFUL</t>
+  </si>
+  <si>
+    <t>NIL</t>
   </si>
 </sst>
 </file>
@@ -394,7 +388,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,10 +441,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -463,7 +457,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -475,15 +469,34 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
